--- a/Tagle.xlsx
+++ b/Tagle.xlsx
@@ -98,7 +98,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -191,6 +191,34 @@
         <v>0.0</v>
       </c>
       <c r="F3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-24</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>已完成</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -294,11 +322,7 @@
       <c r="H2" s="2" t="n">
         <v>0.0</v>
       </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="I2" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -348,7 +372,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -436,7 +460,26 @@
       <c r="D3" s="2" t="n">
         <v>50.0</v>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>2022-09-24</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>更新任务状态</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t/>
         </is>
